--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/AdminTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/AdminTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/Workspace/Test_Automation/src/main/resources/testdesign/testdata/application/CommercialCenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/CommercialCenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{C5EA11FC-9F63-4557-985A-961A52E5089D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3FAFF817-435A-4E50-82B7-34A7C877BD4F}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{C5EA11FC-9F63-4557-985A-961A52E5089D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{47E8E6DA-7DD2-4037-B1AD-E66C4591407F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="222">
   <si>
     <t>TestID</t>
   </si>
@@ -359,9 +359,6 @@
     <t xml:space="preserve"> Training Company</t>
   </si>
   <si>
-    <t>Training Company (training)</t>
-  </si>
-  <si>
     <t>JohnSmith</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>Search Users</t>
   </si>
   <si>
-    <t>EditUserID</t>
-  </si>
-  <si>
     <t>EditFirstName</t>
   </si>
   <si>
@@ -485,9 +479,6 @@
     <t>J0hnSm!th1</t>
   </si>
   <si>
-    <t>training / JohnCliff</t>
-  </si>
-  <si>
     <t>JohnD</t>
   </si>
   <si>
@@ -639,13 +630,88 @@
   </si>
   <si>
     <t>Edit_SearchMarketSegment</t>
+  </si>
+  <si>
+    <t>DCINS01</t>
+  </si>
+  <si>
+    <t>DOUGHERTY &amp; CONRAD INSURANCE SERVICE</t>
+  </si>
+  <si>
+    <t>DCINS_User04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte </t>
+  </si>
+  <si>
+    <t>Waltz</t>
+  </si>
+  <si>
+    <t>Deeptigautam23@gmail.com</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Fiserv@12</t>
+  </si>
+  <si>
+    <t>AASI_01</t>
+  </si>
+  <si>
+    <t>ACTIVE AUTO SALES INC</t>
+  </si>
+  <si>
+    <t>AASI_User03</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Meyers</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>DCINS_User03</t>
+  </si>
+  <si>
+    <t>Monty</t>
+  </si>
+  <si>
+    <t>Hartley</t>
+  </si>
+  <si>
+    <t>Deshawn</t>
+  </si>
+  <si>
+    <t>DCINS_User05</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>deeptigautam23@gmail.com</t>
+  </si>
+  <si>
+    <t>Cash Management - Small</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,8 +735,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +753,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,6 +799,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1156,16 +1251,16 @@
         <v>41</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>39</v>
@@ -1249,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,16 +1488,16 @@
         <v>41</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>39</v>
@@ -1471,16 +1566,16 @@
         <v>68</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>69</v>
@@ -1500,10 +1595,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1539,37 +1634,37 @@
         <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Y2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Z2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD2" t="s">
         <v>31</v>
       </c>
       <c r="AE2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AX2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AY2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AZ2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BD2" t="s">
         <v>31</v>
       </c>
       <c r="BE2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1579,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DC7729-568E-4E32-83F3-29665CD9217B}">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,31 +1690,41 @@
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" customWidth="1"/>
-    <col min="20" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" customWidth="1"/>
-    <col min="34" max="34" width="23.7109375" customWidth="1"/>
-    <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="30.42578125" customWidth="1"/>
-    <col min="37" max="40" width="0" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="29" customWidth="1"/>
-    <col min="42" max="42" width="19.42578125" customWidth="1"/>
-    <col min="43" max="43" width="17.7109375" customWidth="1"/>
-    <col min="44" max="44" width="27" customWidth="1"/>
-    <col min="45" max="45" width="29.140625" customWidth="1"/>
-    <col min="46" max="46" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="36.7109375" customWidth="1"/>
+    <col min="33" max="33" width="23.7109375" customWidth="1"/>
+    <col min="34" max="34" width="22" customWidth="1"/>
+    <col min="35" max="35" width="30.42578125" customWidth="1"/>
+    <col min="36" max="39" width="0" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="29" customWidth="1"/>
+    <col min="41" max="41" width="19.42578125" customWidth="1"/>
+    <col min="42" max="42" width="17.7109375" customWidth="1"/>
+    <col min="43" max="43" width="27" customWidth="1"/>
+    <col min="44" max="44" width="29.140625" customWidth="1"/>
+    <col min="45" max="45" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,117 +1756,114 @@
         <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1772,54 +1874,129 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7">
+        <v>19063</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AF3" s="5">
+        <v>19462</v>
+      </c>
+      <c r="AG3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AG2">
-        <v>19462</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AH3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN3" t="s">
         <v>112</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>107</v>
+      <c r="AO3" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{A0F0596A-F2B5-428D-A463-1DCFAB4EE556}"/>
-    <hyperlink ref="AI2" r:id="rId2" display="Test@1234" xr:uid="{5C7F8975-6CBC-4623-8066-866686A095DB}"/>
-    <hyperlink ref="AJ2" r:id="rId3" display="Tes@1234" xr:uid="{5E97F63C-CE1B-4E98-A014-46A05AA58C23}"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{A0F0596A-F2B5-428D-A463-1DCFAB4EE556}"/>
+    <hyperlink ref="AH3" r:id="rId2" display="Test@1234" xr:uid="{5C7F8975-6CBC-4623-8066-866686A095DB}"/>
+    <hyperlink ref="AI3" r:id="rId3" display="Tes@1234" xr:uid="{5E97F63C-CE1B-4E98-A014-46A05AA58C23}"/>
+    <hyperlink ref="Q2" r:id="rId4" display="mailto:Deeptigautam23@gmail.com" xr:uid="{77691221-5420-467C-954E-74C49ED61754}"/>
+    <hyperlink ref="AH2" r:id="rId5" display="mailto:Fiserv@12" xr:uid="{4C8E162D-DE73-44D4-A6C2-D8B4A1E7DB56}"/>
+    <hyperlink ref="AI2" r:id="rId6" display="mailto:Fiserv@12" xr:uid="{BC72DCD9-064D-4C42-9352-5237C4AFA34C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1827,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4056F0-2493-441D-BF4A-091DFB7C3893}">
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BS3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,21 +2015,43 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="25.7109375" customWidth="1"/>
-    <col min="20" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="36" width="29" customWidth="1"/>
-    <col min="37" max="40" width="0" hidden="1" customWidth="1"/>
-    <col min="41" max="42" width="23" customWidth="1"/>
-    <col min="43" max="47" width="22.42578125" customWidth="1"/>
-    <col min="48" max="49" width="21.140625" customWidth="1"/>
-    <col min="50" max="67" width="0" hidden="1" customWidth="1"/>
-    <col min="68" max="71" width="28.7109375" customWidth="1"/>
-    <col min="72" max="75" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="31" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="34" width="29" customWidth="1"/>
+    <col min="35" max="35" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" customWidth="1"/>
+    <col min="41" max="43" width="22.42578125" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="67" width="28.7109375" customWidth="1"/>
+    <col min="68" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1884,202 +2083,190 @@
         <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>142</v>
-      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -2092,63 +2279,166 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9">
+        <v>19040</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AF3" s="5">
+        <v>19462</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AI3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AG2">
-        <v>19462</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="BM3" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{89CE2E62-5DF2-417D-A553-FBF3BF07BB05}"/>
-    <hyperlink ref="AI2" r:id="rId2" display="Test@1234" xr:uid="{CFF3426A-AEFC-4639-9A94-BDAEB6B7A7B4}"/>
-    <hyperlink ref="AJ2" r:id="rId3" display="Tes@1234" xr:uid="{79E0E0AB-CF02-48CF-8F86-3A7C591BEBFF}"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{8B49437B-5E84-432C-97EF-A33DB44AF62D}"/>
+    <hyperlink ref="AH3" r:id="rId2" display="Test@1234" xr:uid="{7EC768D7-A44E-4FC9-815C-8815D13742AE}"/>
+    <hyperlink ref="AI3" r:id="rId3" display="Tes@1234" xr:uid="{F57435C0-91EC-4303-AC50-05C6F7594586}"/>
+    <hyperlink ref="Q2" r:id="rId4" xr:uid="{5E47A9E3-B2F3-426B-9132-E55A62526741}"/>
+    <hyperlink ref="AH2" r:id="rId5" xr:uid="{16064BF1-F611-46B7-841C-F5F4B311DF02}"/>
+    <hyperlink ref="AI2" r:id="rId6" xr:uid="{CB48BD88-88DE-41B3-BF60-E428CA8196F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2156,34 +2446,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAA0798-B637-4809-9EA2-C90BC576A3A2}">
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="23.5703125" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="27.85546875" customWidth="1"/>
-    <col min="20" max="20" width="27.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="36" width="28.140625" customWidth="1"/>
-    <col min="37" max="40" width="0" hidden="1" customWidth="1"/>
-    <col min="41" max="42" width="27.7109375" customWidth="1"/>
-    <col min="43" max="46" width="21" customWidth="1"/>
-    <col min="47" max="49" width="20.140625" customWidth="1"/>
-    <col min="50" max="51" width="0" hidden="1" customWidth="1"/>
-    <col min="52" max="54" width="30.28515625" customWidth="1"/>
-    <col min="55" max="67" width="0" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="32.7109375" customWidth="1"/>
-    <col min="69" max="71" width="22.28515625" customWidth="1"/>
-    <col min="72" max="76" width="21.85546875" customWidth="1"/>
+    <col min="1" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="28.140625" customWidth="1"/>
+    <col min="35" max="35" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7109375" customWidth="1"/>
+    <col min="41" max="43" width="21" customWidth="1"/>
+    <col min="44" max="45" width="20.140625" customWidth="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="30.28515625" customWidth="1"/>
+    <col min="52" max="64" width="0" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="32.7109375" customWidth="1"/>
+    <col min="66" max="68" width="22.28515625" customWidth="1"/>
+    <col min="69" max="73" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,112 +2525,112 @@
         <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>151</v>
@@ -2400,19 +2710,10 @@
       <c r="BT1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>179</v>
-      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2423,79 +2724,209 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12">
+        <v>19063</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12">
+        <v>19063</v>
+      </c>
+      <c r="BN2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="BO2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+    </row>
+    <row r="3" spans="1:72" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>19462</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AI3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR3" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AS3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AG2">
+      <c r="AX3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM3" s="5">
         <v>19462</v>
       </c>
-      <c r="AH2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="BN3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AV2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BO3" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="BA2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BP2">
-        <v>19462</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>188</v>
-      </c>
+      <c r="BP3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{4AE2D38A-A21E-45D9-88D8-D26034107657}"/>
-    <hyperlink ref="AI2" r:id="rId2" display="Test@1234" xr:uid="{2903A071-28D1-4439-AE51-BA922D58DE5B}"/>
-    <hyperlink ref="AJ2" r:id="rId3" display="Tes@1234" xr:uid="{9FB7CA80-945B-4866-AD00-E97CB6B4011D}"/>
-    <hyperlink ref="BA2" r:id="rId4" xr:uid="{F877CD76-6BF7-471E-89EE-63085F01AB3C}"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{BF17E5A4-7A64-470E-AA0B-462171790CED}"/>
+    <hyperlink ref="AH3" r:id="rId2" display="Test@1234" xr:uid="{60399E7A-3026-4F4C-8646-BCD2A85FA854}"/>
+    <hyperlink ref="AI3" r:id="rId3" display="Tes@1234" xr:uid="{3B41A925-F289-4002-B2FE-094474DD0CB9}"/>
+    <hyperlink ref="AX3" r:id="rId4" xr:uid="{4ACCEC3D-ABC7-4C06-AE2C-76707239820C}"/>
+    <hyperlink ref="Q2" r:id="rId5" xr:uid="{3D60E5EB-98F6-4A96-93D3-7D0A3A7E88E0}"/>
+    <hyperlink ref="AH2" r:id="rId6" xr:uid="{2E09BA00-D63B-45EB-82D1-B50F53955EC5}"/>
+    <hyperlink ref="AI2" r:id="rId7" xr:uid="{E8C49923-AA1A-42C8-804C-31061DB76B86}"/>
+    <hyperlink ref="AX2" r:id="rId8" xr:uid="{119FEED9-1C82-4942-86D8-BD1BD2B7B77E}"/>
+    <hyperlink ref="BO2" r:id="rId9" xr:uid="{6D38621A-F6AF-40BE-BE54-7F5E1EBC73B5}"/>
+    <hyperlink ref="BP2" r:id="rId10" xr:uid="{68C00430-5FDA-47CB-B0AC-2D47704F6E74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
